--- a/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Recruitment.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Recruitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0ED4E4-72B9-4E2F-A7F3-1E644717F71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F9ACC-1EE4-49CA-9FEF-A02F22A5CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>

--- a/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Recruitment.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import req/(OPR)Import Recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import req\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F9ACC-1EE4-49CA-9FEF-A02F22A5CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C052B4C-5FDF-4766-B59C-CDC74F76EF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>company_code</t>
   </si>
   <si>
-    <t>worker_code</t>
-  </si>
-  <si>
     <t>worker_initial</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>รหัสพนักงาน</t>
   </si>
   <si>
     <t>รหัสคำนำหน้า</t>
@@ -575,29 +569,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="23" max="24" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -629,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -640,20 +637,20 @@
       <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>12</v>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>19</v>
@@ -664,14 +661,11 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -683,42 +677,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" customWidth="1"/>
-    <col min="23" max="23" width="15.21875" customWidth="1"/>
-    <col min="24" max="24" width="18.77734375" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -750,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -761,20 +754,20 @@
       <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>18</v>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>12</v>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>19</v>
@@ -785,116 +778,110 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="5" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="X6" s="1" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="X7" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="X8" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="X9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="X10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
